--- a/infracoes.xlsx
+++ b/infracoes.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba21cb8dde5e10a8/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_1225DDAC907BD60E62355476585DCE3A87445885" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{439647F5-A415-40F2-AA42-F95BFA94DFF3}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_1225DDAC907BD60E62355476585DCE3A87445885" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31799CC7-D9B1-408D-8C96-61697C29935C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="881">
   <si>
     <t>162 I</t>
   </si>
@@ -2639,6 +2652,30 @@
   </si>
   <si>
     <t>art</t>
+  </si>
+  <si>
+    <t>Multa por não identificação do condutor infrator, imposta à pessoa jurídica (Art. 257 do CTB)</t>
+  </si>
+  <si>
+    <t>Transitar com o veículo com excesso de peso por eixo (Art. 231, V do CTB)</t>
+  </si>
+  <si>
+    <t>257 do CTB</t>
+  </si>
+  <si>
+    <t>231, V do CTB</t>
+  </si>
+  <si>
+    <t>Transitar com o veículo com excesso de peso - PBT/PBTC e por eixo (Art. 231, V do CTB)</t>
+  </si>
+  <si>
+    <t>Transitar com o veículo com excesso de peso - PBT/PBTC (Art. 231, V do CTB)</t>
+  </si>
+  <si>
+    <t>Evadir-se da cobrança pelo uso de rodovias/vias urbanas por não efetuar pagamento (Art. 209-A do CTB)</t>
+  </si>
+  <si>
+    <t>209-A do CTB</t>
   </si>
 </sst>
 </file>
@@ -3001,10 +3038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D626"/>
+  <dimension ref="A1:D631"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A607" workbookViewId="0">
+      <selection activeCell="D631" sqref="D631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11773,6 +11810,76 @@
         <v>868</v>
       </c>
     </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>875</v>
+      </c>
+      <c r="B627">
+        <v>50020</v>
+      </c>
+      <c r="C627">
+        <v>0</v>
+      </c>
+      <c r="D627" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>876</v>
+      </c>
+      <c r="B628">
+        <v>68312</v>
+      </c>
+      <c r="C628">
+        <v>0</v>
+      </c>
+      <c r="D628" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>876</v>
+      </c>
+      <c r="B629">
+        <v>68313</v>
+      </c>
+      <c r="C629">
+        <v>0</v>
+      </c>
+      <c r="D629" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>876</v>
+      </c>
+      <c r="B630">
+        <v>68311</v>
+      </c>
+      <c r="C630">
+        <v>0</v>
+      </c>
+      <c r="D630" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>880</v>
+      </c>
+      <c r="B631">
+        <v>77301</v>
+      </c>
+      <c r="C631">
+        <v>0</v>
+      </c>
+      <c r="D631" t="s">
+        <v>879</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
